--- a/mashovFinal/uploadedFiles/פרויקט גמר תעשייה וניהול מצגת סוף.xlsx
+++ b/mashovFinal/uploadedFiles/פרויקט גמר תעשייה וניהול מצגת סוף.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157D8D02-2F12-4984-82BB-E7FCBAFE8FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A139F7-82B7-43AF-8637-CDCEBA7DDF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מנחים" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="383">
   <si>
     <t xml:space="preserve">צוות מספר </t>
   </si>
@@ -479,709 +479,709 @@
     <t>בני</t>
   </si>
   <si>
+    <t>dizzab@ruppin.ac.il</t>
+  </si>
+  <si>
+    <t>levshakked@gmail.com</t>
+  </si>
+  <si>
+    <t>aravabt@gmail.com</t>
+  </si>
+  <si>
+    <t>david.benja@gmail.com</t>
+  </si>
+  <si>
+    <t>neta.kettler@gmail.com</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שם משפחה </t>
+  </si>
+  <si>
+    <t>קפלן</t>
+  </si>
+  <si>
+    <t>זקזאק</t>
+  </si>
+  <si>
+    <t>ארונדה</t>
+  </si>
+  <si>
+    <t>סולומון</t>
+  </si>
+  <si>
+    <t>שמיר</t>
+  </si>
+  <si>
+    <t>צבי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עומרי </t>
+  </si>
+  <si>
+    <t>כרמל</t>
+  </si>
+  <si>
+    <t>בן שימול</t>
+  </si>
+  <si>
+    <t>סאייג</t>
+  </si>
+  <si>
+    <t>בלדב</t>
+  </si>
+  <si>
+    <t>ורדי</t>
+  </si>
+  <si>
+    <t>ריבה</t>
+  </si>
+  <si>
+    <t>דהן</t>
+  </si>
+  <si>
+    <t>כהן</t>
+  </si>
+  <si>
+    <t>ברמימון</t>
+  </si>
+  <si>
+    <t>תום</t>
+  </si>
+  <si>
+    <t>בראון</t>
+  </si>
+  <si>
+    <t>אשואל</t>
+  </si>
+  <si>
+    <t>אלכתב</t>
+  </si>
+  <si>
+    <t>גרוס</t>
+  </si>
+  <si>
+    <t>אליס</t>
+  </si>
+  <si>
+    <t>ווגמן</t>
+  </si>
+  <si>
+    <t>אטל</t>
+  </si>
+  <si>
+    <t>אלבז</t>
+  </si>
+  <si>
+    <t>מור יוסף</t>
+  </si>
+  <si>
+    <t>מלכה</t>
+  </si>
+  <si>
+    <t>נדלר</t>
+  </si>
+  <si>
+    <t>זילברג מרגלית</t>
+  </si>
+  <si>
+    <t>קמחי</t>
+  </si>
+  <si>
+    <t>סגל</t>
+  </si>
+  <si>
+    <t>שושן</t>
+  </si>
+  <si>
+    <t>פאר</t>
+  </si>
+  <si>
+    <t>שרר</t>
+  </si>
+  <si>
+    <t>שדה</t>
+  </si>
+  <si>
+    <t>גורן</t>
+  </si>
+  <si>
+    <t>וקסלבלט</t>
+  </si>
+  <si>
+    <t>חיון</t>
+  </si>
+  <si>
+    <t>פישקין</t>
+  </si>
+  <si>
+    <t>בן שושן</t>
+  </si>
+  <si>
+    <t>לוי</t>
+  </si>
+  <si>
+    <t>שיפטן</t>
+  </si>
+  <si>
+    <t>אבוקסיס</t>
+  </si>
+  <si>
+    <t>יעקב</t>
+  </si>
+  <si>
+    <t>הירשמן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פרץ </t>
+  </si>
+  <si>
+    <t>סיטון</t>
+  </si>
+  <si>
+    <t>פינטו</t>
+  </si>
+  <si>
+    <t>טרנר</t>
+  </si>
+  <si>
+    <t>בובריצקי</t>
+  </si>
+  <si>
+    <t>מסילתי</t>
+  </si>
+  <si>
+    <t>קלוגמן</t>
+  </si>
+  <si>
+    <t>וסרמן</t>
+  </si>
+  <si>
+    <t>אסף</t>
+  </si>
+  <si>
+    <t>סופר</t>
+  </si>
+  <si>
+    <t>אוסיפוב</t>
+  </si>
+  <si>
+    <t>בכר</t>
+  </si>
+  <si>
+    <t>בן מוחה</t>
+  </si>
+  <si>
+    <t>סדרס</t>
+  </si>
+  <si>
+    <t>עידן</t>
+  </si>
+  <si>
+    <t>ניר</t>
+  </si>
+  <si>
+    <t>ליטל</t>
+  </si>
+  <si>
+    <t>מיכאל</t>
+  </si>
+  <si>
+    <t>אלין</t>
+  </si>
+  <si>
+    <t>אביה</t>
+  </si>
+  <si>
+    <t>לידור</t>
+  </si>
+  <si>
+    <t>יובל</t>
+  </si>
+  <si>
+    <t>ציון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אביב </t>
+  </si>
+  <si>
+    <t>דולב</t>
+  </si>
+  <si>
+    <t>מור</t>
+  </si>
+  <si>
+    <t>שובל</t>
+  </si>
+  <si>
+    <t>שיר</t>
+  </si>
+  <si>
+    <t>אורי</t>
+  </si>
+  <si>
+    <t>נגה</t>
+  </si>
+  <si>
+    <t>לי</t>
+  </si>
+  <si>
+    <t>גל</t>
+  </si>
+  <si>
+    <t>הדר</t>
+  </si>
+  <si>
+    <t>אלמוג</t>
+  </si>
+  <si>
+    <t>חגי</t>
+  </si>
+  <si>
+    <t>דינה</t>
+  </si>
+  <si>
+    <t>רוני</t>
+  </si>
+  <si>
+    <t>רעות</t>
+  </si>
+  <si>
+    <t>אלון</t>
+  </si>
+  <si>
+    <t>נוי</t>
+  </si>
+  <si>
+    <t>עומר</t>
+  </si>
+  <si>
+    <t>אור</t>
+  </si>
+  <si>
+    <t>עמר</t>
+  </si>
+  <si>
+    <t>גלעד</t>
+  </si>
+  <si>
+    <t>רביד</t>
+  </si>
+  <si>
+    <t>קורל</t>
+  </si>
+  <si>
+    <t>בן</t>
+  </si>
+  <si>
+    <t>גיא</t>
+  </si>
+  <si>
+    <t>רותם</t>
+  </si>
+  <si>
+    <t>ליפז</t>
+  </si>
+  <si>
+    <t>אורן</t>
+  </si>
+  <si>
+    <t>דנה</t>
+  </si>
+  <si>
+    <t>אריאל</t>
+  </si>
+  <si>
+    <t>אופיר</t>
+  </si>
+  <si>
+    <t>תאריך</t>
+  </si>
+  <si>
+    <t>שעת סיום</t>
+  </si>
+  <si>
+    <t>ביימל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עמית </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שקד  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ערבה  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">דוד </t>
+  </si>
+  <si>
+    <t>מנהל</t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
+    <t>שעת התחלה</t>
+  </si>
+  <si>
+    <t>גלצור</t>
+  </si>
+  <si>
+    <t>אנגליסטר</t>
+  </si>
+  <si>
+    <t>אביטל</t>
+  </si>
+  <si>
+    <t>גלוברזון</t>
+  </si>
+  <si>
+    <t>בנטולילה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">איילת </t>
+  </si>
+  <si>
+    <t>ארליך</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שלמה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">יוסי </t>
+  </si>
+  <si>
+    <t>ראובן</t>
+  </si>
+  <si>
+    <t>שלמה</t>
+  </si>
+  <si>
+    <t>אתגר</t>
+  </si>
+  <si>
+    <t>קטלר</t>
+  </si>
+  <si>
+    <t>לב</t>
+  </si>
+  <si>
+    <t>רחבי</t>
+  </si>
+  <si>
+    <t>צורי</t>
+  </si>
+  <si>
+    <t>פרויד</t>
+  </si>
+  <si>
+    <t>לינג</t>
+  </si>
+  <si>
+    <t>בר לב</t>
+  </si>
+  <si>
+    <t>תמי</t>
+  </si>
+  <si>
+    <t>בנגה</t>
+  </si>
+  <si>
+    <t>אופטימיזציה של מלאי תוצג</t>
+  </si>
+  <si>
+    <t>מס רץ</t>
+  </si>
+  <si>
+    <t>מס מנחה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מס מנחה </t>
+  </si>
+  <si>
+    <t>carenw@ruppin.ac.il</t>
+  </si>
+  <si>
+    <t>ווינברג</t>
+  </si>
+  <si>
+    <t>שופט</t>
+  </si>
+  <si>
+    <t>בורנפלד</t>
+  </si>
+  <si>
+    <t>מס שופט</t>
+  </si>
+  <si>
+    <t>סגלוביץ</t>
+  </si>
+  <si>
+    <t>באום</t>
+  </si>
+  <si>
+    <t>סבאג</t>
+  </si>
+  <si>
+    <t>תשובה</t>
+  </si>
+  <si>
+    <t>רופא</t>
+  </si>
+  <si>
+    <t>משה</t>
+  </si>
+  <si>
+    <t>אלקובי</t>
+  </si>
+  <si>
+    <t>שרעבי</t>
+  </si>
+  <si>
+    <t>לבטון</t>
+  </si>
+  <si>
+    <t>אדלשטיין</t>
+  </si>
+  <si>
+    <t>איציקוביץ</t>
+  </si>
+  <si>
+    <t>אפשטיין</t>
+  </si>
+  <si>
+    <t>שירוג</t>
+  </si>
+  <si>
+    <t>פרץ</t>
+  </si>
+  <si>
+    <t>אמויאל</t>
+  </si>
+  <si>
+    <t>פיגארו</t>
+  </si>
+  <si>
+    <t>פלג</t>
+  </si>
+  <si>
+    <t>גלאו</t>
+  </si>
+  <si>
+    <t>טריגאלו</t>
+  </si>
+  <si>
+    <t>הופפלד</t>
+  </si>
+  <si>
+    <t>ימין</t>
+  </si>
+  <si>
+    <t>קצב</t>
+  </si>
+  <si>
+    <t>פלקס</t>
+  </si>
+  <si>
+    <t>אלגרבי</t>
+  </si>
+  <si>
+    <t>חיו</t>
+  </si>
+  <si>
+    <t>פרידמן</t>
+  </si>
+  <si>
+    <t>מירצבסקי</t>
+  </si>
+  <si>
+    <t>מהצרי</t>
+  </si>
+  <si>
+    <t>ידיד</t>
+  </si>
+  <si>
+    <t>ליבוביץ</t>
+  </si>
+  <si>
+    <t>גבע</t>
+  </si>
+  <si>
+    <t>דוכן</t>
+  </si>
+  <si>
+    <t>ליס</t>
+  </si>
+  <si>
+    <t>כץ</t>
+  </si>
+  <si>
+    <t>אבירם</t>
+  </si>
+  <si>
+    <t>רינת</t>
+  </si>
+  <si>
+    <t>עידו</t>
+  </si>
+  <si>
+    <t>ענבל</t>
+  </si>
+  <si>
+    <t>שני</t>
+  </si>
+  <si>
+    <t>שחר</t>
+  </si>
+  <si>
+    <t>בר</t>
+  </si>
+  <si>
+    <t>שרון</t>
+  </si>
+  <si>
+    <t>ימית</t>
+  </si>
+  <si>
+    <t>ענבר</t>
+  </si>
+  <si>
+    <t>ברק</t>
+  </si>
+  <si>
+    <t>אלעד</t>
+  </si>
+  <si>
+    <t>נועם</t>
+  </si>
+  <si>
+    <t>אייל</t>
+  </si>
+  <si>
+    <t>אבזו</t>
+  </si>
+  <si>
+    <t>דניאל</t>
+  </si>
+  <si>
+    <t>עדי</t>
+  </si>
+  <si>
+    <t>טל</t>
+  </si>
+  <si>
+    <t>צוף</t>
+  </si>
+  <si>
+    <t>גדעון</t>
+  </si>
+  <si>
+    <t>ליאן</t>
+  </si>
+  <si>
+    <t>יוהנה</t>
+  </si>
+  <si>
+    <t>פז</t>
+  </si>
+  <si>
+    <t>יניב</t>
+  </si>
+  <si>
+    <t>בר אשר זהביאן</t>
+  </si>
+  <si>
+    <t>בן עזרא</t>
+  </si>
+  <si>
+    <t>שם משפחה</t>
+  </si>
+  <si>
+    <t>שירן</t>
+  </si>
+  <si>
+    <t>אזולאי</t>
+  </si>
+  <si>
+    <t>חן</t>
+  </si>
+  <si>
+    <t>יוסף</t>
+  </si>
+  <si>
+    <t>זכריה</t>
+  </si>
+  <si>
+    <t>איתי</t>
+  </si>
+  <si>
+    <t>עמיאל</t>
+  </si>
+  <si>
+    <t>שנהב</t>
+  </si>
+  <si>
+    <t>שחם</t>
+  </si>
+  <si>
+    <t>אביעד</t>
+  </si>
+  <si>
+    <t>בלסיאנו</t>
+  </si>
+  <si>
+    <t>יוסי</t>
+  </si>
+  <si>
+    <t>שלי</t>
+  </si>
+  <si>
+    <t>גוב</t>
+  </si>
+  <si>
+    <t>bennyb@ruppin.ac.il</t>
+  </si>
+  <si>
+    <t>tami@gmail.com</t>
+  </si>
+  <si>
+    <t>שם משתמש</t>
+  </si>
+  <si>
+    <t>שם משפחה משתמש</t>
+  </si>
+  <si>
+    <t>shlomoe@cardosystems.com</t>
+  </si>
+  <si>
+    <t>אמיר</t>
+  </si>
+  <si>
+    <t>תמיר</t>
+  </si>
+  <si>
+    <t>עומרי</t>
+  </si>
+  <si>
+    <t>תומר</t>
+  </si>
+  <si>
+    <t>נדב</t>
+  </si>
+  <si>
     <t>amit.rechavi@gmail.com</t>
-  </si>
-  <si>
-    <t>dizzab@ruppin.ac.il</t>
-  </si>
-  <si>
-    <t>levshakked@gmail.com</t>
-  </si>
-  <si>
-    <t>aravabt@gmail.com</t>
-  </si>
-  <si>
-    <t>david.benja@gmail.com</t>
-  </si>
-  <si>
-    <t>neta.kettler@gmail.com</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שם משפחה </t>
-  </si>
-  <si>
-    <t>קפלן</t>
-  </si>
-  <si>
-    <t>זקזאק</t>
-  </si>
-  <si>
-    <t>ארונדה</t>
-  </si>
-  <si>
-    <t>סולומון</t>
-  </si>
-  <si>
-    <t>שמיר</t>
-  </si>
-  <si>
-    <t>צבי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">עומרי </t>
-  </si>
-  <si>
-    <t>כרמל</t>
-  </si>
-  <si>
-    <t>בן שימול</t>
-  </si>
-  <si>
-    <t>סאייג</t>
-  </si>
-  <si>
-    <t>בלדב</t>
-  </si>
-  <si>
-    <t>ורדי</t>
-  </si>
-  <si>
-    <t>ריבה</t>
-  </si>
-  <si>
-    <t>דהן</t>
-  </si>
-  <si>
-    <t>כהן</t>
-  </si>
-  <si>
-    <t>ברמימון</t>
-  </si>
-  <si>
-    <t>תום</t>
-  </si>
-  <si>
-    <t>בראון</t>
-  </si>
-  <si>
-    <t>אשואל</t>
-  </si>
-  <si>
-    <t>אלכתב</t>
-  </si>
-  <si>
-    <t>גרוס</t>
-  </si>
-  <si>
-    <t>אליס</t>
-  </si>
-  <si>
-    <t>ווגמן</t>
-  </si>
-  <si>
-    <t>אטל</t>
-  </si>
-  <si>
-    <t>אלבז</t>
-  </si>
-  <si>
-    <t>מור יוסף</t>
-  </si>
-  <si>
-    <t>מלכה</t>
-  </si>
-  <si>
-    <t>נדלר</t>
-  </si>
-  <si>
-    <t>זילברג מרגלית</t>
-  </si>
-  <si>
-    <t>קמחי</t>
-  </si>
-  <si>
-    <t>סגל</t>
-  </si>
-  <si>
-    <t>שושן</t>
-  </si>
-  <si>
-    <t>פאר</t>
-  </si>
-  <si>
-    <t>שרר</t>
-  </si>
-  <si>
-    <t>שדה</t>
-  </si>
-  <si>
-    <t>גורן</t>
-  </si>
-  <si>
-    <t>וקסלבלט</t>
-  </si>
-  <si>
-    <t>חיון</t>
-  </si>
-  <si>
-    <t>פישקין</t>
-  </si>
-  <si>
-    <t>בן שושן</t>
-  </si>
-  <si>
-    <t>לוי</t>
-  </si>
-  <si>
-    <t>שיפטן</t>
-  </si>
-  <si>
-    <t>אבוקסיס</t>
-  </si>
-  <si>
-    <t>יעקב</t>
-  </si>
-  <si>
-    <t>הירשמן</t>
-  </si>
-  <si>
-    <t xml:space="preserve">פרץ </t>
-  </si>
-  <si>
-    <t>סיטון</t>
-  </si>
-  <si>
-    <t>פינטו</t>
-  </si>
-  <si>
-    <t>טרנר</t>
-  </si>
-  <si>
-    <t>בובריצקי</t>
-  </si>
-  <si>
-    <t>מסילתי</t>
-  </si>
-  <si>
-    <t>קלוגמן</t>
-  </si>
-  <si>
-    <t>וסרמן</t>
-  </si>
-  <si>
-    <t>אסף</t>
-  </si>
-  <si>
-    <t>סופר</t>
-  </si>
-  <si>
-    <t>אוסיפוב</t>
-  </si>
-  <si>
-    <t>בכר</t>
-  </si>
-  <si>
-    <t>בן מוחה</t>
-  </si>
-  <si>
-    <t>סדרס</t>
-  </si>
-  <si>
-    <t>עידן</t>
-  </si>
-  <si>
-    <t>ניר</t>
-  </si>
-  <si>
-    <t>ליטל</t>
-  </si>
-  <si>
-    <t>מיכאל</t>
-  </si>
-  <si>
-    <t>אלין</t>
-  </si>
-  <si>
-    <t>אביה</t>
-  </si>
-  <si>
-    <t>לידור</t>
-  </si>
-  <si>
-    <t>יובל</t>
-  </si>
-  <si>
-    <t>ציון</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אביב </t>
-  </si>
-  <si>
-    <t>דולב</t>
-  </si>
-  <si>
-    <t>מור</t>
-  </si>
-  <si>
-    <t>שובל</t>
-  </si>
-  <si>
-    <t>שיר</t>
-  </si>
-  <si>
-    <t>אורי</t>
-  </si>
-  <si>
-    <t>נגה</t>
-  </si>
-  <si>
-    <t>לי</t>
-  </si>
-  <si>
-    <t>גל</t>
-  </si>
-  <si>
-    <t>הדר</t>
-  </si>
-  <si>
-    <t>אלמוג</t>
-  </si>
-  <si>
-    <t>חגי</t>
-  </si>
-  <si>
-    <t>דינה</t>
-  </si>
-  <si>
-    <t>רוני</t>
-  </si>
-  <si>
-    <t>רעות</t>
-  </si>
-  <si>
-    <t>אלון</t>
-  </si>
-  <si>
-    <t>נוי</t>
-  </si>
-  <si>
-    <t>עומר</t>
-  </si>
-  <si>
-    <t>אור</t>
-  </si>
-  <si>
-    <t>עמר</t>
-  </si>
-  <si>
-    <t>גלעד</t>
-  </si>
-  <si>
-    <t>רביד</t>
-  </si>
-  <si>
-    <t>קורל</t>
-  </si>
-  <si>
-    <t>בן</t>
-  </si>
-  <si>
-    <t>גיא</t>
-  </si>
-  <si>
-    <t>רותם</t>
-  </si>
-  <si>
-    <t>ליפז</t>
-  </si>
-  <si>
-    <t>אורן</t>
-  </si>
-  <si>
-    <t>דנה</t>
-  </si>
-  <si>
-    <t>אריאל</t>
-  </si>
-  <si>
-    <t>אופיר</t>
-  </si>
-  <si>
-    <t>תאריך</t>
-  </si>
-  <si>
-    <t>שעת סיום</t>
-  </si>
-  <si>
-    <t>ביימל</t>
-  </si>
-  <si>
-    <t xml:space="preserve">עמית </t>
-  </si>
-  <si>
-    <t xml:space="preserve">שקד  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ערבה  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">דוד </t>
-  </si>
-  <si>
-    <t>מנהל</t>
-  </si>
-  <si>
-    <t>כן</t>
-  </si>
-  <si>
-    <t>שעת התחלה</t>
-  </si>
-  <si>
-    <t>גלצור</t>
-  </si>
-  <si>
-    <t>אנגליסטר</t>
-  </si>
-  <si>
-    <t>אביטל</t>
-  </si>
-  <si>
-    <t>גלוברזון</t>
-  </si>
-  <si>
-    <t>בנטולילה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">איילת </t>
-  </si>
-  <si>
-    <t>ארליך</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שלמה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">יוסי </t>
-  </si>
-  <si>
-    <t>ראובן</t>
-  </si>
-  <si>
-    <t>שלמה</t>
-  </si>
-  <si>
-    <t>אתגר</t>
-  </si>
-  <si>
-    <t>קטלר</t>
-  </si>
-  <si>
-    <t>לב</t>
-  </si>
-  <si>
-    <t>רחבי</t>
-  </si>
-  <si>
-    <t>צורי</t>
-  </si>
-  <si>
-    <t>פרויד</t>
-  </si>
-  <si>
-    <t>לינג</t>
-  </si>
-  <si>
-    <t>בר לב</t>
-  </si>
-  <si>
-    <t>תמי</t>
-  </si>
-  <si>
-    <t>בנגה</t>
-  </si>
-  <si>
-    <t>אופטימיזציה של מלאי תוצג</t>
-  </si>
-  <si>
-    <t>מס רץ</t>
-  </si>
-  <si>
-    <t>מס מנחה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מס מנחה </t>
-  </si>
-  <si>
-    <t>carenw@ruppin.ac.il</t>
-  </si>
-  <si>
-    <t>ווינברג</t>
-  </si>
-  <si>
-    <t>שופט</t>
-  </si>
-  <si>
-    <t>בורנפלד</t>
-  </si>
-  <si>
-    <t>מס שופט</t>
-  </si>
-  <si>
-    <t>סגלוביץ</t>
-  </si>
-  <si>
-    <t>באום</t>
-  </si>
-  <si>
-    <t>סבאג</t>
-  </si>
-  <si>
-    <t>תשובה</t>
-  </si>
-  <si>
-    <t>רופא</t>
-  </si>
-  <si>
-    <t>משה</t>
-  </si>
-  <si>
-    <t>אלקובי</t>
-  </si>
-  <si>
-    <t>שרעבי</t>
-  </si>
-  <si>
-    <t>לבטון</t>
-  </si>
-  <si>
-    <t>אדלשטיין</t>
-  </si>
-  <si>
-    <t>איציקוביץ</t>
-  </si>
-  <si>
-    <t>אפשטיין</t>
-  </si>
-  <si>
-    <t>שירוג</t>
-  </si>
-  <si>
-    <t>פרץ</t>
-  </si>
-  <si>
-    <t>אמויאל</t>
-  </si>
-  <si>
-    <t>פיגארו</t>
-  </si>
-  <si>
-    <t>פלג</t>
-  </si>
-  <si>
-    <t>גלאו</t>
-  </si>
-  <si>
-    <t>טריגאלו</t>
-  </si>
-  <si>
-    <t>הופפלד</t>
-  </si>
-  <si>
-    <t>ימין</t>
-  </si>
-  <si>
-    <t>קצב</t>
-  </si>
-  <si>
-    <t>פלקס</t>
-  </si>
-  <si>
-    <t>אלגרבי</t>
-  </si>
-  <si>
-    <t>חיו</t>
-  </si>
-  <si>
-    <t>פרידמן</t>
-  </si>
-  <si>
-    <t>מירצבסקי</t>
-  </si>
-  <si>
-    <t>מהצרי</t>
-  </si>
-  <si>
-    <t>ידיד</t>
-  </si>
-  <si>
-    <t>ליבוביץ</t>
-  </si>
-  <si>
-    <t>גבע</t>
-  </si>
-  <si>
-    <t>דוכן</t>
-  </si>
-  <si>
-    <t>ליס</t>
-  </si>
-  <si>
-    <t>כץ</t>
-  </si>
-  <si>
-    <t>אבירם</t>
-  </si>
-  <si>
-    <t>רינת</t>
-  </si>
-  <si>
-    <t>עידו</t>
-  </si>
-  <si>
-    <t>ענבל</t>
-  </si>
-  <si>
-    <t>שני</t>
-  </si>
-  <si>
-    <t>שחר</t>
-  </si>
-  <si>
-    <t>בר</t>
-  </si>
-  <si>
-    <t>שרון</t>
-  </si>
-  <si>
-    <t>ימית</t>
-  </si>
-  <si>
-    <t>ענבר</t>
-  </si>
-  <si>
-    <t>ברק</t>
-  </si>
-  <si>
-    <t>אלעד</t>
-  </si>
-  <si>
-    <t>נועם</t>
-  </si>
-  <si>
-    <t>אייל</t>
-  </si>
-  <si>
-    <t>אבזו</t>
-  </si>
-  <si>
-    <t>דניאל</t>
-  </si>
-  <si>
-    <t>עדי</t>
-  </si>
-  <si>
-    <t>טל</t>
-  </si>
-  <si>
-    <t>צוף</t>
-  </si>
-  <si>
-    <t>גדעון</t>
-  </si>
-  <si>
-    <t>ליאן</t>
-  </si>
-  <si>
-    <t>יוהנה</t>
-  </si>
-  <si>
-    <t>פז</t>
-  </si>
-  <si>
-    <t>יניב</t>
-  </si>
-  <si>
-    <t>בר אשר זהביאן</t>
-  </si>
-  <si>
-    <t>בן עזרא</t>
-  </si>
-  <si>
-    <t>שם משפחה</t>
-  </si>
-  <si>
-    <t>שירן</t>
-  </si>
-  <si>
-    <t>אזולאי</t>
-  </si>
-  <si>
-    <t>חן</t>
-  </si>
-  <si>
-    <t>יוסף</t>
-  </si>
-  <si>
-    <t>זכריה</t>
-  </si>
-  <si>
-    <t>איתי</t>
-  </si>
-  <si>
-    <t>עמיאל</t>
-  </si>
-  <si>
-    <t>שנהב</t>
-  </si>
-  <si>
-    <t>שחם</t>
-  </si>
-  <si>
-    <t>אביעד</t>
-  </si>
-  <si>
-    <t>בלסיאנו</t>
-  </si>
-  <si>
-    <t>יוסי</t>
-  </si>
-  <si>
-    <t>שלי</t>
-  </si>
-  <si>
-    <t>גוב</t>
-  </si>
-  <si>
-    <t>bennyb@ruppin.ac.il</t>
-  </si>
-  <si>
-    <t>tami@gmail.com</t>
-  </si>
-  <si>
-    <t>שם משתמש</t>
-  </si>
-  <si>
-    <t>שם משפחה משתמש</t>
-  </si>
-  <si>
-    <t>shlomoe@cardosystems.com</t>
-  </si>
-  <si>
-    <t>אמיר</t>
-  </si>
-  <si>
-    <t>תמיר</t>
-  </si>
-  <si>
-    <t>עומרי</t>
-  </si>
-  <si>
-    <t>תומר</t>
-  </si>
-  <si>
-    <t>נדב</t>
-  </si>
-  <si>
-    <t>3D2282488</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$]h:mm;@" x16r2:formatCode16="[$-en-IL,1]h:mm;@"/>
+  </numFmts>
   <fonts count="23">
     <font>
       <sz val="10"/>
@@ -1427,7 +1427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1506,8 +1506,6 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1542,9 +1540,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1563,6 +1558,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1881,7 +1887,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1892,23 +1898,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13">
-      <c r="A1" s="69" t="s">
-        <v>290</v>
+      <c r="A1" s="66" t="s">
+        <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>376</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1918,20 +1924,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>151</v>
+      <c r="B2" s="71" t="s">
+        <v>382</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>266</v>
+        <v>281</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>265</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1939,22 +1945,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>132</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1962,19 +1968,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>266</v>
+        <v>261</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>265</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1982,19 +1988,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2002,19 +2008,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2022,39 +2028,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="74" t="s">
-        <v>377</v>
+      <c r="B8" s="71" t="s">
+        <v>376</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2068,13 +2074,13 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2085,16 +2091,16 @@
         <v>80</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2108,13 +2114,13 @@
         <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2125,19 +2131,19 @@
         <v>91</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2148,16 +2154,16 @@
         <v>96</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2168,16 +2174,16 @@
         <v>100</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2191,13 +2197,13 @@
         <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2211,13 +2217,13 @@
         <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2228,16 +2234,16 @@
         <v>110</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2245,53 +2251,53 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>294</v>
-      </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>266</v>
+      <c r="D19" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="75" t="s">
-        <v>374</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>266</v>
+      <c r="B20" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2299,9 +2305,10 @@
     <hyperlink ref="B19" r:id="rId1" xr:uid="{4DEB97D7-8CBF-49C7-BA9A-99F5C1ADD20D}"/>
     <hyperlink ref="B20" r:id="rId2" xr:uid="{B3CA9F1B-2558-41DF-9221-F337767B580A}"/>
     <hyperlink ref="B8" r:id="rId3" xr:uid="{AB5452D2-6836-4FCC-B224-07779451C201}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{E1E61247-33DC-4432-87F7-C3C5639DAFFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2310,10 +2317,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC63"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2323,7 +2330,8 @@
     <col min="6" max="6" width="26.54296875" customWidth="1"/>
     <col min="7" max="7" width="27.81640625" customWidth="1"/>
     <col min="9" max="9" width="30.1796875" customWidth="1"/>
-    <col min="10" max="11" width="19.54296875" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" style="90" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" style="86" customWidth="1"/>
     <col min="17" max="17" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2334,67 +2342,67 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="66" t="s">
-        <v>291</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="L1" s="66" t="s">
+      <c r="I1" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
+      <c r="M1" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="N1" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
     </row>
     <row r="2" spans="1:29" ht="15.5">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>383</v>
+        <v>158</v>
+      </c>
+      <c r="D2" s="10">
+        <v>302282488</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
@@ -2411,41 +2419,41 @@
       <c r="I2" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="88">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="88">
         <v>0.59027777777777779</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="76">
+      <c r="M2" s="73">
         <v>18</v>
       </c>
-      <c r="N2" s="83">
+      <c r="N2" s="80">
         <v>43866</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
     </row>
     <row r="3" spans="1:29" ht="13">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="10">
         <v>311362230</v>
@@ -2459,30 +2467,30 @@
       <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="51"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="49"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
     </row>
     <row r="4" spans="1:29" ht="12.5">
       <c r="B4" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="10">
         <v>204265060</v>
@@ -2496,88 +2504,61 @@
       <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="51"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-    </row>
-    <row r="5" spans="1:29" ht="13">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="16">
-        <v>302925797</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="16">
-        <v>2</v>
-      </c>
-      <c r="J5" s="42">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="K5" s="42">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="76">
-        <v>18</v>
-      </c>
-      <c r="N5" s="51"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="49"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+    </row>
+    <row r="5" spans="1:29" ht="12.5">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="49"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="49"/>
       <c r="U5" s="52"/>
       <c r="V5" s="52"/>
       <c r="W5" s="52"/>
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="52"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
       <c r="AB5" s="52"/>
       <c r="AC5" s="52"/>
     </row>
     <row r="6" spans="1:29" ht="13">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" s="16">
-        <v>312167182</v>
+        <v>302925797</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -2588,34 +2569,48 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="51"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
+      <c r="H6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6" s="88">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="K6" s="88">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="73">
+        <v>18</v>
+      </c>
+      <c r="N6" s="49"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
     </row>
     <row r="7" spans="1:29" ht="13">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>380</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="16">
-        <v>305268450</v>
+        <v>312167182</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -2626,88 +2621,74 @@
       <c r="G7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="51"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="49"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
     </row>
     <row r="8" spans="1:29" ht="13">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="16">
+        <v>305268450</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="49"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+    </row>
+    <row r="9" spans="1:29" ht="13">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="9">
-        <v>312276611</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="16">
-        <v>2</v>
-      </c>
-      <c r="J8" s="42">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="K8" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="77">
-        <v>6</v>
-      </c>
-      <c r="N8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-    </row>
-    <row r="9" spans="1:29" ht="13">
-      <c r="A9" s="7"/>
       <c r="B9" s="9" t="s">
         <v>256</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" s="9">
-        <v>206281743</v>
+        <v>312276611</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>19</v>
@@ -2715,37 +2696,51 @@
       <c r="F9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="51"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-    </row>
-    <row r="10" spans="1:29" ht="15.5">
+      <c r="H9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2</v>
+      </c>
+      <c r="J9" s="88">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="K9" s="88">
+        <v>0.75</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="74">
+        <v>6</v>
+      </c>
+      <c r="N9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+    </row>
+    <row r="10" spans="1:29" ht="13">
       <c r="A10" s="7"/>
       <c r="B10" s="9" t="s">
         <v>255</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="9">
-        <v>312613888</v>
+        <v>206281743</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>19</v>
@@ -2756,88 +2751,74 @@
       <c r="G10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
       <c r="L10" s="41"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="51"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="51"/>
-    </row>
-    <row r="11" spans="1:29" ht="13">
-      <c r="A11" s="7" t="s">
+      <c r="M10" s="74"/>
+      <c r="N10" s="49"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="9">
+        <v>312613888</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="49"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="49"/>
+    </row>
+    <row r="12" spans="1:29" ht="13">
+      <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B12" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="16">
         <v>204133904</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="16">
-        <v>3</v>
-      </c>
-      <c r="J11" s="42">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="K11" s="42">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="76">
-        <v>5</v>
-      </c>
-      <c r="N11" s="51"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="52"/>
-    </row>
-    <row r="12" spans="1:29" ht="13">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="16">
-        <v>308553551</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -2848,34 +2829,48 @@
       <c r="G12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="51"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="52"/>
+      <c r="H12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="16">
+        <v>3</v>
+      </c>
+      <c r="J12" s="88">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="K12" s="88">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="73">
+        <v>5</v>
+      </c>
+      <c r="N12" s="49"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="50"/>
     </row>
     <row r="13" spans="1:29" ht="13">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D13" s="16">
-        <v>205768831</v>
+        <v>308553551</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -2886,87 +2881,74 @@
       <c r="G13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="51"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="52"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="49"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="50"/>
     </row>
     <row r="14" spans="1:29" ht="13">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="16">
+        <v>205768831</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="49"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="50"/>
+    </row>
+    <row r="15" spans="1:29" ht="13">
+      <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B15" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="9">
         <v>308409200</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="31">
-        <v>6</v>
-      </c>
-      <c r="J14" s="42">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="K14" s="42">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="78">
-        <v>2</v>
-      </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-    </row>
-    <row r="15" spans="1:29" ht="13">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="9">
-        <v>204541700</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>19</v>
@@ -2977,86 +2959,86 @@
       <c r="G15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="79"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
+      <c r="H15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="31">
+        <v>6</v>
+      </c>
+      <c r="J15" s="88">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K15" s="88">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="75">
+        <v>2</v>
+      </c>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
     </row>
     <row r="16" spans="1:29" ht="13">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="9">
+        <v>204541700</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="76"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+    </row>
+    <row r="17" spans="1:29" ht="13">
+      <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="B17" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="16">
         <v>305154908</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="32">
-        <v>5</v>
-      </c>
-      <c r="J16" s="42">
-        <v>0.625</v>
-      </c>
-      <c r="K16" s="42">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="78">
-        <v>2</v>
-      </c>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-    </row>
-    <row r="17" spans="1:29" ht="13">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="16">
-        <v>200751816</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -3067,174 +3049,174 @@
       <c r="G17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="79"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
+      <c r="H17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="32">
+        <v>5</v>
+      </c>
+      <c r="J17" s="88">
+        <v>0.625</v>
+      </c>
+      <c r="K17" s="88">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="75">
+        <v>2</v>
+      </c>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
     </row>
     <row r="18" spans="1:29" ht="13">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="16">
+        <v>200751816</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="76"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+    </row>
+    <row r="19" spans="1:29" ht="13">
+      <c r="A19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C19" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="9">
         <v>203269949</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="32">
-        <v>5</v>
-      </c>
-      <c r="J18" s="42">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="K18" s="42">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="78">
-        <v>2</v>
-      </c>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-    </row>
-    <row r="19" spans="1:29" ht="13">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="9">
-        <v>305765240</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="G19" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="79"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
+      <c r="H19" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="32">
+        <v>5</v>
+      </c>
+      <c r="J19" s="88">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="K19" s="88">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="75">
+        <v>2</v>
+      </c>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
     </row>
     <row r="20" spans="1:29" ht="13">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="9">
+        <v>305765240</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="76"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+    </row>
+    <row r="21" spans="1:29" ht="13">
+      <c r="A21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="B21" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="16">
         <v>204542419</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="31">
-        <v>6</v>
-      </c>
-      <c r="J20" s="42">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="K20" s="42">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="L20" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="78">
-        <v>2</v>
-      </c>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-    </row>
-    <row r="21" spans="1:29" ht="13">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="16">
-        <v>204195473</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -3245,34 +3227,47 @@
       <c r="G21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="51"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
+      <c r="H21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="31">
+        <v>6</v>
+      </c>
+      <c r="J21" s="88">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="K21" s="88">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="75">
+        <v>2</v>
+      </c>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
     </row>
     <row r="22" spans="1:29" ht="13">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D22" s="16">
-        <v>204694996</v>
+        <v>204195473</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -3283,124 +3278,126 @@
       <c r="G22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="51"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="49"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
     </row>
     <row r="23" spans="1:29" ht="13">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="16">
+        <v>204694996</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="49"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+    </row>
+    <row r="24" spans="1:29" ht="13">
+      <c r="A24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="B24" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="9">
         <v>203937990</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="16">
-        <v>3</v>
-      </c>
-      <c r="J23" s="42">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="K23" s="42">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="L23" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="M23" s="80">
-        <v>20</v>
-      </c>
-      <c r="N23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-    </row>
-    <row r="24" spans="1:29" ht="13">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="9">
-        <v>313539736</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="G24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="51"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
+      <c r="H24" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="16">
+        <v>3</v>
+      </c>
+      <c r="J24" s="88">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="K24" s="88">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="M24" s="77">
+        <v>20</v>
+      </c>
+      <c r="N24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
     </row>
     <row r="25" spans="1:29" ht="13">
       <c r="A25" s="7"/>
       <c r="B25" s="9" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D25" s="9">
-        <v>312498439</v>
+        <v>313539736</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>19</v>
@@ -3409,88 +3406,72 @@
       <c r="G25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="51"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-    </row>
-    <row r="26" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="49"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+    </row>
+    <row r="26" spans="1:29" ht="13">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="9">
+        <v>312498439</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="49"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+    </row>
+    <row r="27" spans="1:29" ht="19.5" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="B27" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="16">
         <v>204596308</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="16">
-        <v>1</v>
-      </c>
-      <c r="J26" s="42">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="K26" s="42">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="L26" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="M26" s="80">
-        <v>20</v>
-      </c>
-      <c r="N26" s="51"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-    </row>
-    <row r="27" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="16">
-        <v>203596002</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
@@ -3501,34 +3482,48 @@
       <c r="G27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="51"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-    </row>
-    <row r="28" spans="1:29" ht="18.75" customHeight="1">
+      <c r="H27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1</v>
+      </c>
+      <c r="J27" s="88">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K27" s="88">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="M27" s="77">
+        <v>20</v>
+      </c>
+      <c r="N27" s="49"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+    </row>
+    <row r="28" spans="1:29" ht="19.5" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28" s="16">
-        <v>203339700</v>
+        <v>203596002</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
@@ -3539,88 +3534,74 @@
       <c r="G28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="51"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-    </row>
-    <row r="29" spans="1:29" ht="13">
-      <c r="A29" s="7" t="s">
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="49"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+    </row>
+    <row r="29" spans="1:29" ht="18.75" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="16">
+        <v>203339700</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="49"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+    </row>
+    <row r="30" spans="1:29" ht="13">
+      <c r="A30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="9">
-        <v>204265557</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="35">
-        <v>4</v>
-      </c>
-      <c r="J29" s="42">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K29" s="42">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="L29" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="77">
-        <v>18</v>
-      </c>
-      <c r="N29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-    </row>
-    <row r="30" spans="1:29" ht="13">
-      <c r="A30" s="7"/>
       <c r="B30" s="9" t="s">
         <v>244</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D30" s="9">
-        <v>305470916</v>
+        <v>204265557</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>19</v>
@@ -3628,37 +3609,51 @@
       <c r="F30" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="51"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
+      <c r="H30" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="35">
+        <v>4</v>
+      </c>
+      <c r="J30" s="88">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K30" s="88">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="L30" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="74">
+        <v>18</v>
+      </c>
+      <c r="N30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="49"/>
     </row>
     <row r="31" spans="1:29" ht="13">
       <c r="A31" s="7"/>
       <c r="B31" s="9" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D31" s="9">
-        <v>201377165</v>
+        <v>305470916</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>19</v>
@@ -3669,88 +3664,74 @@
       <c r="G31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
       <c r="L31" s="41"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="51"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="49"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
     </row>
     <row r="32" spans="1:29" ht="13">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="9">
+        <v>201377165</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="49"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+    </row>
+    <row r="33" spans="1:29" ht="13">
+      <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="B33" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="16">
         <v>204308720</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="31">
-        <v>6</v>
-      </c>
-      <c r="J32" s="42">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="K32" s="42">
-        <v>0.625</v>
-      </c>
-      <c r="L32" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="78">
-        <v>2</v>
-      </c>
-      <c r="N32" s="51"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-    </row>
-    <row r="33" spans="1:29" ht="13">
-      <c r="A33" s="7"/>
-      <c r="B33" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="16">
-        <v>311244800</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -3761,88 +3742,88 @@
       <c r="G33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="51"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
+      <c r="H33" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="31">
+        <v>6</v>
+      </c>
+      <c r="J33" s="88">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="K33" s="88">
+        <v>0.625</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="75">
+        <v>2</v>
+      </c>
+      <c r="N33" s="49"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
     </row>
     <row r="34" spans="1:29" ht="13">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="16">
+        <v>311244800</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="49"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+    </row>
+    <row r="35" spans="1:29" ht="13">
+      <c r="A35" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="9">
-        <v>301156592</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="16">
-        <v>1</v>
-      </c>
-      <c r="J34" s="42">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K34" s="42">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="L34" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" s="80">
-        <v>5</v>
-      </c>
-      <c r="N34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-    </row>
-    <row r="35" spans="1:29" ht="13">
-      <c r="A35" s="7"/>
       <c r="B35" s="9" t="s">
         <v>241</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D35" s="9">
-        <v>111111111</v>
+        <v>301156592</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>12</v>
@@ -3850,37 +3831,51 @@
       <c r="F35" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="51"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
+      <c r="H35" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="16">
+        <v>1</v>
+      </c>
+      <c r="J35" s="88">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K35" s="88">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="L35" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="77">
+        <v>5</v>
+      </c>
+      <c r="N35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
     </row>
     <row r="36" spans="1:29" ht="13">
       <c r="A36" s="7"/>
       <c r="B36" s="9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D36" s="9">
-        <v>222222222</v>
+        <v>111111111</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>12</v>
@@ -3891,88 +3886,74 @@
       <c r="G36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="51"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="49"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
     </row>
     <row r="37" spans="1:29" ht="13">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="9">
+        <v>222222222</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="49"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+    </row>
+    <row r="38" spans="1:29" ht="13">
+      <c r="A38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="B38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="16">
         <v>205803653</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="16">
-        <v>2</v>
-      </c>
-      <c r="J37" s="42">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="K37" s="42">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="L37" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" s="80">
-        <v>5</v>
-      </c>
-      <c r="N37" s="51"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-    </row>
-    <row r="38" spans="1:29" ht="13">
-      <c r="A38" s="7"/>
-      <c r="B38" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" s="16">
-        <v>311361034</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -3983,34 +3964,48 @@
       <c r="G38" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="51"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
+      <c r="H38" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" s="16">
+        <v>2</v>
+      </c>
+      <c r="J38" s="88">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="K38" s="88">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="L38" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="77">
+        <v>5</v>
+      </c>
+      <c r="N38" s="49"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
     </row>
     <row r="39" spans="1:29" ht="13">
       <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D39" s="16">
-        <v>205483340</v>
+        <v>311361034</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -4021,88 +4016,74 @@
       <c r="G39" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="51"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="49"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
     </row>
     <row r="40" spans="1:29" ht="13">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="16">
+        <v>205483340</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="49"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+    </row>
+    <row r="41" spans="1:29" ht="13">
+      <c r="A41" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="9">
-        <v>204485767</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="16">
-        <v>3</v>
-      </c>
-      <c r="J40" s="42">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="K40" s="42">
-        <v>0.6875</v>
-      </c>
-      <c r="L40" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="M40" s="80">
-        <v>5</v>
-      </c>
-      <c r="N40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-    </row>
-    <row r="41" spans="1:29" ht="13">
-      <c r="A41" s="7"/>
       <c r="B41" s="9" t="s">
         <v>237</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D41" s="9">
-        <v>307968941</v>
+        <v>204485767</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>19</v>
@@ -4113,23 +4094,37 @@
       <c r="G41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="51"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
+      <c r="H41" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="16">
+        <v>3</v>
+      </c>
+      <c r="J41" s="88">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="K41" s="88">
+        <v>0.6875</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="77">
+        <v>5</v>
+      </c>
+      <c r="N41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
     </row>
     <row r="42" spans="1:29" ht="13">
       <c r="A42" s="7"/>
@@ -4137,10 +4132,10 @@
         <v>236</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D42" s="9">
-        <v>308563055</v>
+        <v>307968941</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>19</v>
@@ -4151,88 +4146,74 @@
       <c r="G42" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="51"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51"/>
-      <c r="AC42" s="51"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="49"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="49"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="49"/>
     </row>
     <row r="43" spans="1:29" ht="13">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="9">
+        <v>308563055</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="49"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="49"/>
+    </row>
+    <row r="44" spans="1:29" ht="13">
+      <c r="A44" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="19">
-        <v>308415926</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" s="35">
-        <v>4</v>
-      </c>
-      <c r="J43" s="42">
-        <v>0.6875</v>
-      </c>
-      <c r="K43" s="42">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="L43" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="M43" s="81">
-        <v>19</v>
-      </c>
-      <c r="N43" s="51"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
-      <c r="X43" s="52"/>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="52"/>
-      <c r="AB43" s="52"/>
-      <c r="AC43" s="52"/>
-    </row>
-    <row r="44" spans="1:29" ht="13">
-      <c r="A44" s="7"/>
       <c r="B44" s="19" t="s">
         <v>234</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D44" s="19">
-        <v>205787617</v>
+        <v>308415926</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
@@ -4240,26 +4221,40 @@
       <c r="F44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="51"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
+      <c r="H44" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="35">
+        <v>4</v>
+      </c>
+      <c r="J44" s="88">
+        <v>0.6875</v>
+      </c>
+      <c r="K44" s="88">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="L44" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="M44" s="78">
+        <v>19</v>
+      </c>
+      <c r="N44" s="49"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
     </row>
     <row r="45" spans="1:29" ht="13">
       <c r="A45" s="7"/>
@@ -4267,10 +4262,10 @@
         <v>233</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D45" s="19">
-        <v>312484520</v>
+        <v>205787617</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -4278,91 +4273,77 @@
       <c r="F45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="51"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="49"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="50"/>
+      <c r="X45" s="50"/>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="50"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
     </row>
     <row r="46" spans="1:29" ht="13">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="19">
+        <v>312484520</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="49"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+    </row>
+    <row r="47" spans="1:29" ht="13">
+      <c r="A47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="9">
-        <v>312270796</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H46" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="32">
-        <v>5</v>
-      </c>
-      <c r="J46" s="42">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="K46" s="42">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="L46" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="M46" s="81">
-        <v>19</v>
-      </c>
-      <c r="N46" s="51"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
-      <c r="U46" s="51"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="51"/>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-    </row>
-    <row r="47" spans="1:29" ht="13">
-      <c r="A47" s="7"/>
       <c r="B47" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D47" s="9">
-        <v>311546808</v>
+        <v>312270796</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>19</v>
@@ -4373,23 +4354,37 @@
       <c r="G47" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="51"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="51"/>
-      <c r="U47" s="51"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="51"/>
-      <c r="AC47" s="51"/>
+      <c r="H47" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="32">
+        <v>5</v>
+      </c>
+      <c r="J47" s="88">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="K47" s="88">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="L47" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="M47" s="78">
+        <v>19</v>
+      </c>
+      <c r="N47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49"/>
     </row>
     <row r="48" spans="1:29" ht="13">
       <c r="A48" s="7"/>
@@ -4397,10 +4392,10 @@
         <v>230</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D48" s="9">
-        <v>204738447</v>
+        <v>311546808</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>19</v>
@@ -4411,123 +4406,126 @@
       <c r="G48" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="51"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="51"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="49"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
     </row>
     <row r="49" spans="1:29" ht="13">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="9">
+        <v>204738447</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="49"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="49"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="49"/>
+      <c r="AC49" s="49"/>
+    </row>
+    <row r="50" spans="1:29" ht="13">
+      <c r="A50" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" s="16">
-        <v>305779449</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="29">
-        <v>3</v>
-      </c>
-      <c r="J49" s="42">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="K49" s="42">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="L49" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="M49" s="81">
-        <v>19</v>
-      </c>
-      <c r="N49" s="51"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-    </row>
-    <row r="50" spans="1:29" ht="13">
-      <c r="A50" s="7"/>
       <c r="B50" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D50" s="16">
-        <v>305241028</v>
+        <v>305779449</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F50" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="G50" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="51"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52"/>
+      <c r="H50" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="29">
+        <v>3</v>
+      </c>
+      <c r="J50" s="88">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="K50" s="88">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L50" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="M50" s="78">
+        <v>19</v>
+      </c>
+      <c r="N50" s="49"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
     </row>
     <row r="51" spans="1:29" ht="13">
       <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D51" s="16">
-        <v>313308116</v>
+        <v>305241028</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -4535,88 +4533,71 @@
       <c r="G51" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="51"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
-      <c r="AC51" s="52"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="49"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="50"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
     </row>
     <row r="52" spans="1:29" ht="13">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="16">
+        <v>313308116</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="49"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
+    </row>
+    <row r="53" spans="1:29" ht="13">
+      <c r="A53" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="9">
-        <v>203911011</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="16">
-        <v>1</v>
-      </c>
-      <c r="J52" s="42">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="K52" s="42">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="L52" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="M52" s="77">
-        <v>20</v>
-      </c>
-      <c r="N52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
-      <c r="W52" s="51"/>
-      <c r="X52" s="51"/>
-      <c r="Y52" s="51"/>
-      <c r="Z52" s="51"/>
-      <c r="AA52" s="51"/>
-      <c r="AB52" s="51"/>
-      <c r="AC52" s="51"/>
-    </row>
-    <row r="53" spans="1:29" ht="13">
-      <c r="A53" s="7"/>
       <c r="B53" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D53" s="9">
-        <v>204197206</v>
+        <v>203911011</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>12</v>
@@ -4624,26 +4605,40 @@
       <c r="F53" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="51"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="51"/>
-      <c r="X53" s="51"/>
-      <c r="Y53" s="51"/>
-      <c r="Z53" s="51"/>
-      <c r="AA53" s="51"/>
-      <c r="AB53" s="51"/>
-      <c r="AC53" s="51"/>
+      <c r="H53" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="16">
+        <v>1</v>
+      </c>
+      <c r="J53" s="88">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K53" s="88">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="L53" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="M53" s="74">
+        <v>20</v>
+      </c>
+      <c r="N53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="49"/>
+      <c r="V53" s="49"/>
+      <c r="W53" s="49"/>
+      <c r="X53" s="49"/>
+      <c r="Y53" s="49"/>
+      <c r="Z53" s="49"/>
+      <c r="AA53" s="49"/>
+      <c r="AB53" s="49"/>
+      <c r="AC53" s="49"/>
     </row>
     <row r="54" spans="1:29" ht="13">
       <c r="A54" s="7"/>
@@ -4651,10 +4646,10 @@
         <v>225</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D54" s="9">
-        <v>333333333</v>
+        <v>204197206</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>12</v>
@@ -4665,88 +4660,74 @@
       <c r="G54" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
       <c r="L54" s="41"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="51"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="51"/>
-      <c r="U54" s="51"/>
-      <c r="V54" s="51"/>
-      <c r="W54" s="51"/>
-      <c r="X54" s="51"/>
-      <c r="Y54" s="51"/>
-      <c r="Z54" s="51"/>
-      <c r="AA54" s="51"/>
-      <c r="AB54" s="51"/>
-      <c r="AC54" s="51"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="49"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+      <c r="W54" s="49"/>
+      <c r="X54" s="49"/>
+      <c r="Y54" s="49"/>
+      <c r="Z54" s="49"/>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="49"/>
+      <c r="AC54" s="49"/>
     </row>
     <row r="55" spans="1:29" ht="13">
-      <c r="A55" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="16">
-        <v>311230742</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="C55" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="9">
+        <v>333333333</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>144</v>
+      <c r="F55" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="I55" s="35">
-        <v>4</v>
-      </c>
-      <c r="J55" s="42">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="K55" s="42">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="L55" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="M55" s="77">
-        <v>20</v>
-      </c>
-      <c r="N55" s="51"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="49"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="49"/>
+      <c r="Z55" s="49"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="49"/>
+      <c r="AC55" s="49"/>
     </row>
     <row r="56" spans="1:29" ht="13">
-      <c r="A56" s="7"/>
+      <c r="A56" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="B56" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D56" s="16">
-        <v>316173012</v>
+        <v>311230742</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -4757,23 +4738,37 @@
       <c r="G56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="51"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="52"/>
-      <c r="AC56" s="52"/>
+      <c r="H56" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I56" s="35">
+        <v>4</v>
+      </c>
+      <c r="J56" s="88">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="K56" s="88">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="L56" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="M56" s="74">
+        <v>20</v>
+      </c>
+      <c r="N56" s="49"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
+      <c r="X56" s="50"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="50"/>
     </row>
     <row r="57" spans="1:29" ht="13">
       <c r="A57" s="7"/>
@@ -4781,10 +4776,10 @@
         <v>222</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D57" s="16">
-        <v>308416320</v>
+        <v>316173012</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
@@ -4795,88 +4790,74 @@
       <c r="G57" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
       <c r="L57" s="41"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="51"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
-      <c r="AC57" s="52"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="49"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="50"/>
+      <c r="W57" s="50"/>
+      <c r="X57" s="50"/>
+      <c r="Y57" s="50"/>
+      <c r="Z57" s="50"/>
+      <c r="AA57" s="50"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="50"/>
     </row>
     <row r="58" spans="1:29" ht="13">
-      <c r="A58" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="9">
-        <v>301849196</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="C58" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="16">
+        <v>308416320</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>146</v>
+      <c r="F58" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="16">
-        <v>1</v>
-      </c>
-      <c r="J58" s="42">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="K58" s="42">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="L58" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M58" s="77">
-        <v>2</v>
-      </c>
-      <c r="N58" s="51"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
-      <c r="V58" s="51"/>
-      <c r="W58" s="51"/>
-      <c r="X58" s="51"/>
-      <c r="Y58" s="51"/>
-      <c r="Z58" s="51"/>
-      <c r="AA58" s="51"/>
-      <c r="AB58" s="51"/>
-      <c r="AC58" s="51"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="49"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="50"/>
+      <c r="Y58" s="50"/>
+      <c r="Z58" s="50"/>
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="50"/>
     </row>
     <row r="59" spans="1:29" ht="13">
-      <c r="A59" s="7"/>
+      <c r="A59" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="B59" s="9" t="s">
         <v>220</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="D59" s="9">
-        <v>308237817</v>
+        <v>301849196</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>12</v>
@@ -4887,23 +4868,37 @@
       <c r="G59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="51"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="51"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="51"/>
-      <c r="V59" s="51"/>
-      <c r="W59" s="51"/>
-      <c r="X59" s="51"/>
-      <c r="Y59" s="51"/>
-      <c r="Z59" s="51"/>
-      <c r="AA59" s="51"/>
-      <c r="AB59" s="51"/>
-      <c r="AC59" s="51"/>
+      <c r="H59" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="16">
+        <v>1</v>
+      </c>
+      <c r="J59" s="88">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="K59" s="88">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="L59" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="74">
+        <v>2</v>
+      </c>
+      <c r="N59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="49"/>
+      <c r="X59" s="49"/>
+      <c r="Y59" s="49"/>
+      <c r="Z59" s="49"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="49"/>
+      <c r="AC59" s="49"/>
     </row>
     <row r="60" spans="1:29" ht="13">
       <c r="A60" s="7"/>
@@ -4911,10 +4906,10 @@
         <v>219</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D60" s="9">
-        <v>305766206</v>
+        <v>308237817</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>12</v>
@@ -4925,76 +4920,74 @@
       <c r="G60" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
       <c r="L60" s="41"/>
-      <c r="M60" s="77"/>
-      <c r="N60" s="51"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="51"/>
-      <c r="U60" s="51"/>
-      <c r="V60" s="51"/>
-      <c r="W60" s="51"/>
-      <c r="X60" s="51"/>
-      <c r="Y60" s="51"/>
-      <c r="Z60" s="51"/>
-      <c r="AA60" s="51"/>
-      <c r="AB60" s="51"/>
-      <c r="AC60" s="51"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="49"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="49"/>
+      <c r="V60" s="49"/>
+      <c r="W60" s="49"/>
+      <c r="X60" s="49"/>
+      <c r="Y60" s="49"/>
+      <c r="Z60" s="49"/>
+      <c r="AA60" s="49"/>
+      <c r="AB60" s="49"/>
+      <c r="AC60" s="49"/>
     </row>
     <row r="61" spans="1:29" ht="13">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="9">
+        <v>305766206</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="49"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="49"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
+    </row>
+    <row r="62" spans="1:29" ht="13">
+      <c r="A62" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D61" s="16">
+      <c r="B62" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="16">
         <v>305033797</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I61" s="32">
-        <v>5</v>
-      </c>
-      <c r="J61" s="42">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="K61" s="42">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="L61" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="M61" s="82">
-        <v>2</v>
-      </c>
-      <c r="N61" s="51"/>
-    </row>
-    <row r="62" spans="1:29" ht="13">
-      <c r="A62" s="7"/>
-      <c r="B62" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" s="16">
-        <v>201529468</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>19</v>
@@ -5005,22 +4998,36 @@
       <c r="G62" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="51"/>
+      <c r="H62" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="32">
+        <v>5</v>
+      </c>
+      <c r="J62" s="88">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="K62" s="88">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="L62" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="79">
+        <v>2</v>
+      </c>
+      <c r="N62" s="49"/>
     </row>
     <row r="63" spans="1:29" ht="13">
       <c r="A63" s="7"/>
       <c r="B63" s="2" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D63" s="16">
-        <v>205670235</v>
+        <v>201529468</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>19</v>
@@ -5031,21 +5038,47 @@
       <c r="G63" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="82"/>
-      <c r="N63" s="51"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="49"/>
+    </row>
+    <row r="64" spans="1:29" ht="13">
+      <c r="A64" s="7"/>
+      <c r="B64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="16">
+        <v>205670235</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J64" s="87"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F41" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F42" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F43" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5071,13 +5104,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -5086,23 +5119,23 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="66" t="s">
-        <v>292</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>259</v>
+      <c r="G1" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>258</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>258</v>
+      <c r="K1" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.5">
@@ -5110,16 +5143,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D2" s="84">
+      <c r="D2" s="81">
         <v>205885940</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>21</v>
@@ -5139,23 +5172,23 @@
       <c r="K2">
         <v>16</v>
       </c>
-      <c r="L2" s="83">
+      <c r="L2" s="80">
         <v>43866</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="D3" s="8">
         <v>225963487</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>21</v>
@@ -5172,10 +5205,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D4" s="8">
         <v>369878542</v>
@@ -5205,10 +5238,10 @@
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>364</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>365</v>
       </c>
       <c r="D5" s="8">
         <v>145633147</v>
@@ -5231,10 +5264,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="D6" s="8">
         <v>788854661</v>
@@ -5264,10 +5297,10 @@
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="D7" s="8">
         <v>328486621</v>
@@ -5290,16 +5323,16 @@
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D8" s="8">
         <v>256589877</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
@@ -5314,7 +5347,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K8">
         <v>20</v>
@@ -5325,16 +5358,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="D9" s="8">
         <v>253155479</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
@@ -5375,7 +5408,7 @@
     <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="86" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="83" customWidth="1"/>
     <col min="5" max="5" width="62.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -5384,13 +5417,13 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="D1" s="85" t="s">
+      <c r="C1" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="82" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5402,14 +5435,14 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="66" t="s">
-        <v>291</v>
-      </c>
-      <c r="I1" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>258</v>
+      <c r="H1" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5417,10 +5450,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" s="12">
         <v>484855611</v>
@@ -5440,17 +5473,17 @@
       <c r="I2">
         <v>9</v>
       </c>
-      <c r="J2" s="83">
+      <c r="J2" s="80">
         <v>43866</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D3" s="12">
         <v>558962219</v>
@@ -5473,12 +5506,12 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="84">
+        <v>299</v>
+      </c>
+      <c r="D4" s="81">
         <v>986654231</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -5500,10 +5533,10 @@
     <row r="5" spans="1:10">
       <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>356</v>
+        <v>336</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>355</v>
       </c>
       <c r="D5" s="12">
         <v>158447451</v>
@@ -5526,15 +5559,15 @@
         <v>41</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>264</v>
+        <v>333</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>263</v>
       </c>
       <c r="D6" s="12">
         <v>377848544</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="69" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -5553,12 +5586,12 @@
     <row r="7" spans="1:10">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="84">
+        <v>300</v>
+      </c>
+      <c r="D7" s="81">
         <v>556842771</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -5579,10 +5612,10 @@
         <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" s="12">
         <v>363214475</v>
@@ -5606,10 +5639,10 @@
     <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" s="12">
         <v>452178773</v>
@@ -5630,12 +5663,12 @@
     <row r="10" spans="1:10">
       <c r="A10" s="24"/>
       <c r="B10" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="84">
+        <v>303</v>
+      </c>
+      <c r="D10" s="81">
         <v>314564884</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -5656,10 +5689,10 @@
         <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D11" s="12">
         <v>336558741</v>
@@ -5683,10 +5716,10 @@
     <row r="12" spans="1:10">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" s="12">
         <v>325669871</v>
@@ -5709,12 +5742,12 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="84">
+        <v>306</v>
+      </c>
+      <c r="D13" s="81">
         <v>254711544</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -5736,10 +5769,10 @@
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D14" s="12">
         <v>658744521</v>
@@ -5762,10 +5795,10 @@
         <v>62</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D15" s="12">
         <v>885421335</v>
@@ -5789,12 +5822,12 @@
     <row r="16" spans="1:10">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" s="84">
+        <v>309</v>
+      </c>
+      <c r="D16" s="81">
         <v>587442165</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -5815,10 +5848,10 @@
         <v>69</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D17" s="12">
         <v>554244211</v>
@@ -5842,10 +5875,10 @@
     <row r="18" spans="1:9">
       <c r="A18" s="24"/>
       <c r="B18" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D18" s="12">
         <v>787854221</v>
@@ -5868,12 +5901,12 @@
         <v>74</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" s="84">
+        <v>312</v>
+      </c>
+      <c r="D19" s="81">
         <v>256699874</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -5895,10 +5928,10 @@
     <row r="20" spans="1:9">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D20" s="12">
         <v>245411366</v>
@@ -5919,10 +5952,10 @@
     <row r="21" spans="1:9">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D21" s="12">
         <v>254117896</v>
@@ -5945,12 +5978,12 @@
         <v>84</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="84">
+        <v>172</v>
+      </c>
+      <c r="D22" s="81">
         <v>785441235</v>
       </c>
       <c r="E22" s="24" t="s">
@@ -5972,10 +6005,10 @@
     <row r="23" spans="1:9">
       <c r="A23" s="24"/>
       <c r="B23" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D23" s="12">
         <v>854126789</v>
@@ -5996,10 +6029,10 @@
     <row r="24" spans="1:9">
       <c r="A24" s="24"/>
       <c r="B24" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D24" s="12">
         <v>578412366</v>
@@ -6022,12 +6055,12 @@
         <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="84">
+        <v>317</v>
+      </c>
+      <c r="D25" s="81">
         <v>587789644</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -6049,10 +6082,10 @@
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" s="12">
         <v>542136987</v>
@@ -6073,10 +6106,10 @@
     <row r="27" spans="1:9">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D27" s="12">
         <v>200458778</v>
@@ -6099,12 +6132,12 @@
         <v>107</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="D28" s="84">
+        <v>319</v>
+      </c>
+      <c r="D28" s="81">
         <v>540123604</v>
       </c>
       <c r="E28" s="24" t="s">
@@ -6126,10 +6159,10 @@
     <row r="29" spans="1:9">
       <c r="A29" s="24"/>
       <c r="B29" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D29" s="12">
         <v>253044047</v>
@@ -6152,10 +6185,10 @@
         <v>111</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D30" s="12">
         <v>254620112</v>
@@ -6179,12 +6212,12 @@
     <row r="31" spans="1:9">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D31" s="84">
+        <v>322</v>
+      </c>
+      <c r="D31" s="81">
         <v>233012548</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -6205,21 +6238,21 @@
         <v>115</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D32" s="12">
         <v>250484886</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="67" t="s">
         <v>58</v>
       </c>
       <c r="H32">
@@ -6232,21 +6265,21 @@
     <row r="33" spans="1:9">
       <c r="A33" s="24"/>
       <c r="B33" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D33" s="12">
         <v>215505841</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="67" t="s">
         <v>58</v>
       </c>
       <c r="H33">
@@ -6258,12 +6291,12 @@
         <v>118</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D34" s="84">
+        <v>325</v>
+      </c>
+      <c r="D34" s="81">
         <v>369802754</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -6285,10 +6318,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="33"/>
       <c r="B35" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D35" s="12">
         <v>254103687</v>
@@ -6311,10 +6344,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D36" s="12">
         <v>125466980</v>
@@ -6338,12 +6371,12 @@
     <row r="37" spans="1:9">
       <c r="A37" s="24"/>
       <c r="B37" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="D37" s="84">
+        <v>328</v>
+      </c>
+      <c r="D37" s="81">
         <v>220153014</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -6362,10 +6395,10 @@
     <row r="38" spans="1:9">
       <c r="A38" s="24"/>
       <c r="B38" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D38" s="12">
         <v>556487231</v>
@@ -6388,10 +6421,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D39" s="12">
         <v>256987014</v>
@@ -6415,12 +6448,12 @@
     <row r="40" spans="1:9">
       <c r="A40" s="33"/>
       <c r="B40" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>357</v>
-      </c>
-      <c r="D40" s="84">
+        <v>354</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="81">
         <v>236810254</v>
       </c>
       <c r="E40" s="37" t="s">

--- a/mashovFinal/uploadedFiles/פרויקט גמר תעשייה וניהול מצגת סוף.xlsx
+++ b/mashovFinal/uploadedFiles/פרויקט גמר תעשייה וניהול מצגת סוף.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A139F7-82B7-43AF-8637-CDCEBA7DDF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E829FEFC-2EAC-4599-9299-A6C9843B7368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="382">
   <si>
     <t xml:space="preserve">צוות מספר </t>
   </si>
@@ -1158,9 +1158,6 @@
   </si>
   <si>
     <t>אמיר</t>
-  </si>
-  <si>
-    <t>תמיר</t>
   </si>
   <si>
     <t>עומרי</t>
@@ -1925,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>260</v>
@@ -2320,7 +2317,7 @@
   <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2450,7 +2447,7 @@
     <row r="3" spans="1:29" ht="13">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>159</v>
@@ -2486,9 +2483,7 @@
       <c r="AC3" s="52"/>
     </row>
     <row r="4" spans="1:29" ht="12.5">
-      <c r="B4" s="9" t="s">
-        <v>378</v>
-      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
         <v>160</v>
       </c>
@@ -2552,7 +2547,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>161</v>
@@ -2604,7 +2599,7 @@
     <row r="7" spans="1:29" ht="13">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>162</v>
